--- a/biology/Mycologie/Riccardia/Riccardia.xlsx
+++ b/biology/Mycologie/Riccardia/Riccardia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Riccardia est un du genre d’hépatiques, de la famille des Aneuraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The plant List et Tropicos reconnaissent environ 200 espèces dans ce genre[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The plant List et Tropicos reconnaissent environ 200 espèces dans ce genre,.
 			Riccardia lasiorhinus
 			Riccardia palmata
 </t>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (5 août 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (5 août 2018) :
 Riccardia aberrans (Steph.) Gradst.
 Riccardia aequicellularis (Steph.) Hewson
 Riccardia aequitexta (Steph.) E.A.Br.
@@ -833,7 +849,7 @@
 Riccardia wettsteinii Schiffn.
 Riccardia womersleyana Hewson
 Riccardia xylophila Hässel
-Selon The Plant List            (5 août 2018)[5] :
+Selon The Plant List            (5 août 2018) :
 Riccardia aberrans (Stephani) Gradst.
 Riccardia adglutinata A. Evans
 Riccardia aequicellularis (Stephani) Hewson
@@ -1050,7 +1066,7 @@
 Riccardia wallisii (Stephani) Gradst.
 Riccardia wattsiana (Stephani) Hewson
 Riccardia womersleyana Hewson
-Selon Tropicos                                           (5 août 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 Riccardia aberrans (Steph.) Gradst.
 Riccardia adglutinata A. Evans
 Riccardia aequicellularis (Steph.) Hewson
